--- a/Questions_.xlsx
+++ b/Questions_.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GWU\Course Materials\Fall 2024\DATS 6101 - Intro to DS - Darcy Morris\Git Repositories\FyroozFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9775C85B-8717-4235-9F9E-F96F890031E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9C2C78-0B2E-4BDF-8855-597E965416DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{9B418414-19BA-48AB-ABFA-3887AD5330B5}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="1" xr2:uid="{9B418414-19BA-48AB-ABFA-3887AD5330B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$A$13465</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="443">
   <si>
     <t>CSV File Header</t>
   </si>
@@ -44,9 +48,6 @@
     <t>Measurement</t>
   </si>
   <si>
-    <t>Participant or Examiner?</t>
-  </si>
-  <si>
     <t>Survey Question</t>
   </si>
   <si>
@@ -59,9 +60,6 @@
     <t>Generalized Anxiety Disorder, Subquestion 1</t>
   </si>
   <si>
-    <t>Participant</t>
-  </si>
-  <si>
     <t>Feeling nervous, anxious or on edge?</t>
   </si>
   <si>
@@ -480,13 +478,904 @@
   </si>
   <si>
     <t>Survey Taker accepts terms and submit survey</t>
+  </si>
+  <si>
+    <t>Types of Variables</t>
+  </si>
+  <si>
+    <t>Singleplayer</t>
+  </si>
+  <si>
+    <t>Multiplayer - online - with strangers</t>
+  </si>
+  <si>
+    <t>Multiplayer - online - with online acquaintances or teammates</t>
+  </si>
+  <si>
+    <t>Multiplayer - online - with real life friends</t>
+  </si>
+  <si>
+    <t>Multiplayer - offline (people in the same room)</t>
+  </si>
+  <si>
+    <t>all of the above</t>
+  </si>
+  <si>
+    <t>Multiplayer - Online - With real friends, and with online acquaintances, and strangers</t>
+  </si>
+  <si>
+    <t>With strangers and friends</t>
+  </si>
+  <si>
+    <t>Singleplayer - online</t>
+  </si>
+  <si>
+    <t>watching</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Multiplayer - online - with online acquaintances or teammates and with real life friends</t>
+  </si>
+  <si>
+    <t>Multiplayer - online with friends, teammates and strangers</t>
+  </si>
+  <si>
+    <t>Sometimes alone (Ranked), sometimes with friends. Everytime there are strangers in my game ofc</t>
+  </si>
+  <si>
+    <t>Multiplayer online, with friends (sometimes in the same room), sometimes with strangers.</t>
+  </si>
+  <si>
+    <t>I prefer playing with RLF but I also play it to make a living.</t>
+  </si>
+  <si>
+    <t>Multiplayer - online - with strangers or real life friends</t>
+  </si>
+  <si>
+    <t>Multiplayer - online with online team mates and real life friends</t>
+  </si>
+  <si>
+    <t>Mutliplayer - A mix of friends/strangers.</t>
+  </si>
+  <si>
+    <t>Multiplayer - online - with real life friends and strangers</t>
+  </si>
+  <si>
+    <t>Play solo but in skype call with friends</t>
+  </si>
+  <si>
+    <t>mix of real life friends and online acquaintances</t>
+  </si>
+  <si>
+    <t>A combination of all of the aboive</t>
+  </si>
+  <si>
+    <t>With real life friends against strangers</t>
+  </si>
+  <si>
+    <t>It's really a bit of all</t>
+  </si>
+  <si>
+    <t>multiplayer online with online friends</t>
+  </si>
+  <si>
+    <t>With friends and strangers.</t>
+  </si>
+  <si>
+    <t>multiplayer - online with real life friends + stragners</t>
+  </si>
+  <si>
+    <t>sometimes with friends, sometimes with strangers :)</t>
+  </si>
+  <si>
+    <t>Multiplayer with online friends and real life friends</t>
+  </si>
+  <si>
+    <t>Multilayer - online - with real life friends and online friends as well as with strangers</t>
+  </si>
+  <si>
+    <t>I like to call them online FRIENDS and not acquaintances. you should have called it online friends and not acquaintances..</t>
+  </si>
+  <si>
+    <t>1v1 matchmaking</t>
+  </si>
+  <si>
+    <t>with friends or online acquintances vs strangers</t>
+  </si>
+  <si>
+    <t>All of the above save offline</t>
+  </si>
+  <si>
+    <t>A mixture of all of them</t>
+  </si>
+  <si>
+    <t>I duo with my boyfriend pretty much all the time.</t>
+  </si>
+  <si>
+    <t>Multiplayer - Online - With real life friends and online acquaintances</t>
+  </si>
+  <si>
+    <t>Used to be the last option only, but in the last two weeks only singleplayer</t>
+  </si>
+  <si>
+    <t>online - real life friends AND strangers</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>Alone and with online acquaintances</t>
+  </si>
+  <si>
+    <t>Multiplayer - oline - with friend i never met in real life yet</t>
+  </si>
+  <si>
+    <t>varying multiplayer online</t>
+  </si>
+  <si>
+    <t>multiplayer online with friends and strangers</t>
+  </si>
+  <si>
+    <t>Mix of online teammates and real life friends</t>
+  </si>
+  <si>
+    <t>Both with real life friends and online friends</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiplayer - online with real life friends &amp; online acquaintances. </t>
+  </si>
+  <si>
+    <t>Multiplayer online with friends and singleplayer</t>
+  </si>
+  <si>
+    <t>Multiplayer - online - with friends i met online and i've spoked to them</t>
+  </si>
+  <si>
+    <t>Multiplayer - Online - With my girlfriend</t>
+  </si>
+  <si>
+    <t>Either single player or multiplayer with RL friends</t>
+  </si>
+  <si>
+    <t>A bit of everything mostly multiplayer games tho</t>
+  </si>
+  <si>
+    <t>alone but on skype</t>
+  </si>
+  <si>
+    <t>I play with both real life friends and acquaintances.</t>
+  </si>
+  <si>
+    <t>Multiplayer - online - with IRL teammates</t>
+  </si>
+  <si>
+    <t>By myself/with 1 friend whilst communicating our soloq expreicnes with each other over skype</t>
+  </si>
+  <si>
+    <t>Mix between Singleplayer and Mutliplayer with real life friends</t>
+  </si>
+  <si>
+    <t>Multiplayer - online - but with friends in the same room</t>
+  </si>
+  <si>
+    <t>multiplayer - online - with girlfriend and strangers</t>
+  </si>
+  <si>
+    <t>with strangers/IRL friends and online accquaintances</t>
+  </si>
+  <si>
+    <t>Multiplayer - online - both RL friends and strangers</t>
+  </si>
+  <si>
+    <t>Multiplayer - online - with online and real life friends</t>
+  </si>
+  <si>
+    <t>A combination of all Multiplayer options</t>
+  </si>
+  <si>
+    <t>Multiplayer- with freinds and strangers</t>
+  </si>
+  <si>
+    <t>solo q</t>
+  </si>
+  <si>
+    <t>Multiplayer online with both, real life friends and people i met on the internet</t>
+  </si>
+  <si>
+    <t>Multiplayer - With strangers and friends</t>
+  </si>
+  <si>
+    <t>Multiplayer - online - Strangers vs Bots/AI</t>
+  </si>
+  <si>
+    <t>Multiplayer online with strangers and acquaintances at the same level</t>
+  </si>
+  <si>
+    <t>Multilplayer - online - all options above</t>
+  </si>
+  <si>
+    <t>some times solo, other with friends</t>
+  </si>
+  <si>
+    <t>Multiplayer - online - mix of real life friends and strangers</t>
+  </si>
+  <si>
+    <t>Singleplayer and multiplayer with strangers</t>
+  </si>
+  <si>
+    <t>Multiplayer-online-with both friends and strangers equally</t>
+  </si>
+  <si>
+    <t>Multiplayer online, with a mix of real life friends and online acquaintances</t>
+  </si>
+  <si>
+    <t>real friends+strangers</t>
+  </si>
+  <si>
+    <t>Multiplayer, various</t>
+  </si>
+  <si>
+    <t>Multiplayer-online - with real life friends and friends I've never met in person</t>
+  </si>
+  <si>
+    <t>With Friends and Strangers</t>
+  </si>
+  <si>
+    <t>Multiplayer - online with both real life friends and online acquaintances</t>
+  </si>
+  <si>
+    <t>Co-op with my cousin</t>
+  </si>
+  <si>
+    <t>pretty much balanced of all you listed</t>
+  </si>
+  <si>
+    <t>Multiplaye-online-with freinds and strangers</t>
+  </si>
+  <si>
+    <t>Multiplayer-some friends irl some i made online</t>
+  </si>
+  <si>
+    <t>multiplayer queued with friends against strangers</t>
+  </si>
+  <si>
+    <t>With my partner</t>
+  </si>
+  <si>
+    <t>usually i play online games with both real life friends and online mates.</t>
+  </si>
+  <si>
+    <t>Multplayer - with RL friends and friends of RL friends</t>
+  </si>
+  <si>
+    <t>online with real life friends and online acquaintances</t>
+  </si>
+  <si>
+    <t>multiplayer mixture of both real and online friends</t>
+  </si>
+  <si>
+    <t>Both Multiplayer online with real life friends and strangers</t>
+  </si>
+  <si>
+    <t>Multiplayer online with Friends from the Internet, not Strangers.</t>
+  </si>
+  <si>
+    <t>Multiplayer - online - with friends and/or strangers</t>
+  </si>
+  <si>
+    <t>Online with team+strangers</t>
+  </si>
+  <si>
+    <t>Both multiplayer with real friends and teammates</t>
+  </si>
+  <si>
+    <t>Multiplayer - online - with internet friends</t>
+  </si>
+  <si>
+    <t>Multiplayer with Friends and Strangers</t>
+  </si>
+  <si>
+    <t>with friend and stragers in same team</t>
+  </si>
+  <si>
+    <t>Multiplayer equally with strangers or real life friends</t>
+  </si>
+  <si>
+    <t>Multiplayer - online - with strangers against A.I.</t>
+  </si>
+  <si>
+    <t>Online with friends, both real life friends and friends I've made online.</t>
+  </si>
+  <si>
+    <t>With RL friends and randoms</t>
+  </si>
+  <si>
+    <t>All multiplayer options listed above.</t>
+  </si>
+  <si>
+    <t>i play a lot of ranked with strangers, but also play a lot with my IRL friends in normal games... so its kinda 50/50</t>
+  </si>
+  <si>
+    <t>Multiplayer - online - with real life friends+with ppl i met over internet and we play together and meet each other</t>
+  </si>
+  <si>
+    <t>Singleplayer is my favorite, but mostly play with real life friends</t>
+  </si>
+  <si>
+    <t>a mix between rl friends and with strangers depends how im feeling</t>
+  </si>
+  <si>
+    <t>Multiplayer 2&amp;3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiplayer-online acquaintances over several years are real life friends. </t>
+  </si>
+  <si>
+    <t>Multiplayer with strangers, family and online friends. OffT: Would be better to be able to choose more than 1 option</t>
+  </si>
+  <si>
+    <t>Ladder with friends or strangers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All the above </t>
+  </si>
+  <si>
+    <t>All Multiplayer - Online categories fit.</t>
+  </si>
+  <si>
+    <t>Multiplayer-online-both 4 and 5</t>
+  </si>
+  <si>
+    <t>let me cross more stuff. SP and MP equally</t>
+  </si>
+  <si>
+    <t>All options</t>
+  </si>
+  <si>
+    <t>Multiplayer - online- with real life friends and online acquaintances</t>
+  </si>
+  <si>
+    <t>all of these</t>
+  </si>
+  <si>
+    <t>Because of solo q i play most singeplayer but when I am bored of it, I either play with rl friends or online acquaintances so it depends</t>
+  </si>
+  <si>
+    <t>girlfriend</t>
+  </si>
+  <si>
+    <t>Everything from above in the same amount</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Either playing with strangers or friends is fine</t>
+  </si>
+  <si>
+    <t>Multiplayer-online-with real life friends/strangers/aquaintances</t>
+  </si>
+  <si>
+    <t>Single/Multi same amount</t>
+  </si>
+  <si>
+    <t>Multiplayer, such as League of Legends, and then many single-player steam games like Skyrim, Binding of Isaac, Borderlands, etc.</t>
+  </si>
+  <si>
+    <t>50/50 strangers/acquaintances</t>
+  </si>
+  <si>
+    <t>ranked soloQ and normal games with RL firends</t>
+  </si>
+  <si>
+    <t>Multiplayer - online (with real life friends and with strangers)</t>
+  </si>
+  <si>
+    <t>Multiplayer- online with rl and online friends</t>
+  </si>
+  <si>
+    <t>Multiplayer with rl frends and strangers</t>
+  </si>
+  <si>
+    <t>Soloqueue</t>
+  </si>
+  <si>
+    <t>Multi- online with stranger and friends</t>
+  </si>
+  <si>
+    <t>Multiplayer - Both with strangers and teammates</t>
+  </si>
+  <si>
+    <t>multi with internet buddies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Multiplayer - online - with friend and strangers</t>
+  </si>
+  <si>
+    <t>Multiplayer - online - real life friends and online acquaintances</t>
+  </si>
+  <si>
+    <t>Real life friends and strangers.</t>
+  </si>
+  <si>
+    <t>mostly multiplayer but a bit each reply-option</t>
+  </si>
+  <si>
+    <t>Options 3,4 &amp; 5</t>
+  </si>
+  <si>
+    <t>mix of the last 2 options</t>
+  </si>
+  <si>
+    <t>Its a mixture of both single player and online with strangers</t>
+  </si>
+  <si>
+    <t>Mix of playing with friends and online friends</t>
+  </si>
+  <si>
+    <t>75/25 online strangers/online RL friends</t>
+  </si>
+  <si>
+    <t>Solo Que</t>
+  </si>
+  <si>
+    <t>Multiplayer - online I consider the people I've online to be real friends but I'm not sure that's what your real life friends option alludes to?</t>
+  </si>
+  <si>
+    <t>50/50 between single and multi with friends</t>
+  </si>
+  <si>
+    <t>Strangers and friends alike</t>
+  </si>
+  <si>
+    <t>One person</t>
+  </si>
+  <si>
+    <t>multiplayer with real life friends and strangers</t>
+  </si>
+  <si>
+    <t>Half of games with real life friends and half with online friends</t>
+  </si>
+  <si>
+    <t>Multiplayer - online - with strangers, sometimes with some friends</t>
+  </si>
+  <si>
+    <t>multiplayer with strangers and online acquintances</t>
+  </si>
+  <si>
+    <t>Multiplayer - online - with strangers - but skyping with friends</t>
+  </si>
+  <si>
+    <t>With online friends I consider "real" friends</t>
+  </si>
+  <si>
+    <t>Fifa with friends in room (ps4), LoL online with strangers tryhard ranked, CSGO competetive with friends.</t>
+  </si>
+  <si>
+    <t>with real live Friend and teammates</t>
+  </si>
+  <si>
+    <t>all of above</t>
+  </si>
+  <si>
+    <t>Multiplayer - online with real friends, online acquaintances, and strangers</t>
+  </si>
+  <si>
+    <t>Multiplayer with strangers and with acquaintances</t>
+  </si>
+  <si>
+    <t>Multiplayer online with friends and random people</t>
+  </si>
+  <si>
+    <t>Mix between with strangers and real friends</t>
+  </si>
+  <si>
+    <t>Multiplayer - online - with strangers, real life friends, and online acquaintances/teammates</t>
+  </si>
+  <si>
+    <t>Singleplayer and multiplayer online with strangers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skyrim Single player, League with friends </t>
+  </si>
+  <si>
+    <t>I play ranked with strangers in solo que and I play with my friends in normals</t>
+  </si>
+  <si>
+    <t>Multiplayer w/ irl and online friends</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm versatile </t>
+  </si>
+  <si>
+    <t>Both strangers and real life friends</t>
+  </si>
+  <si>
+    <t>Multiplayer - online - with online friends and strangers</t>
+  </si>
+  <si>
+    <t>online with real friends and acquaintances (nice WORD :&lt;)</t>
+  </si>
+  <si>
+    <t>online, with and withour friends</t>
+  </si>
+  <si>
+    <t>Solo queue/Duo queue</t>
+  </si>
+  <si>
+    <t>Multiplayer -online- with both online acquaintances and real life friends</t>
+  </si>
+  <si>
+    <t>Both Offline and Online</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Multiplayer - online - with my Girlfriend</t>
+  </si>
+  <si>
+    <t>Alone, with friend and strangers</t>
+  </si>
+  <si>
+    <t>Single player - speedrunning</t>
+  </si>
+  <si>
+    <t>Multiplayer - online with friends/strangers/team</t>
+  </si>
+  <si>
+    <t>MP, both rl friends and strangers</t>
+  </si>
+  <si>
+    <t>And with real life friends</t>
+  </si>
+  <si>
+    <t>friends online, also solo player</t>
+  </si>
+  <si>
+    <t>Everything almost equally</t>
+  </si>
+  <si>
+    <t>Singleplayer - online - talking with real life friends</t>
+  </si>
+  <si>
+    <t>singleplayer and multiplayer with real life friends or strangers</t>
+  </si>
+  <si>
+    <t>all of the online multiplayer choices</t>
+  </si>
+  <si>
+    <t>Friends and Others</t>
+  </si>
+  <si>
+    <t>Multiplayer - Online - With friends and strangers</t>
+  </si>
+  <si>
+    <t>half single player half multiplayer with both person in same room and online friends</t>
+  </si>
+  <si>
+    <t>Multiplayer - online - mix of real life and online friends</t>
+  </si>
+  <si>
+    <t>Duo Queue with one good friend, else solo</t>
+  </si>
+  <si>
+    <t>Multiplayer-online-with real life friends and online teammates</t>
+  </si>
+  <si>
+    <t>Multiplayer-online-with real life friends and strangers</t>
+  </si>
+  <si>
+    <t>Ranked, count this for Multiplayer with strangers if more appropriate</t>
+  </si>
+  <si>
+    <t>Depends</t>
+  </si>
+  <si>
+    <t>Its pretty 33%: SP(KSP), MP friends(CS), MP strangers(LoL))</t>
+  </si>
+  <si>
+    <t>Multiplayer - online - with gf</t>
+  </si>
+  <si>
+    <t>MP with strangers and teammates are equal</t>
+  </si>
+  <si>
+    <t>multi-online-with strangers &amp; real life friends</t>
+  </si>
+  <si>
+    <t>Equal mix of real life friends and online</t>
+  </si>
+  <si>
+    <t>Multiplayer-online-real life friends and online acquaintances</t>
+  </si>
+  <si>
+    <t>All the multiplayer options.</t>
+  </si>
+  <si>
+    <t>Multiplayer with online friends and real life friends.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 last options. </t>
+  </si>
+  <si>
+    <t>I play with people I meet online and real life friends.</t>
+  </si>
+  <si>
+    <t>with my ear</t>
+  </si>
+  <si>
+    <t>1 IRL Friends + 2 online acquaintances</t>
+  </si>
+  <si>
+    <t>all of em ?</t>
+  </si>
+  <si>
+    <t>For League - Multiplayer, Online with strangers. For WoW, Multiplayer, Online with real life friends</t>
+  </si>
+  <si>
+    <t>I play both single and multiplayer about evenly. Multiplayer offline, online with strangers, with teammates, real friends, and by myself in single player</t>
+  </si>
+  <si>
+    <t>with irl friends and strangers</t>
+  </si>
+  <si>
+    <t>aram</t>
+  </si>
+  <si>
+    <t>the last 2</t>
+  </si>
+  <si>
+    <t>All mutiplayer - online anwsers; depends on the situation</t>
+  </si>
+  <si>
+    <t>Multiplayer online with strangers and friends</t>
+  </si>
+  <si>
+    <t>Online with strangers/real life friends</t>
+  </si>
+  <si>
+    <t>All the online ones</t>
+  </si>
+  <si>
+    <t>Singleplayer, but streaming</t>
+  </si>
+  <si>
+    <t>A combination of friends, online acquaintances and strangers, depending on who is online and what I feel like</t>
+  </si>
+  <si>
+    <t>mix of all</t>
+  </si>
+  <si>
+    <t>Both online with friends, and strangers.</t>
+  </si>
+  <si>
+    <t>Multiplayer - online, probably even split between RL friends/online friends/soloq</t>
+  </si>
+  <si>
+    <t>Multiplayer - online - sometimes with strangers, other times with online acquaintances</t>
+  </si>
+  <si>
+    <t>Multiplayer with both real life friends and online strangers/friends</t>
+  </si>
+  <si>
+    <t>Multiplayer with strangers/friends/online acquaintances</t>
+  </si>
+  <si>
+    <t>Mix between Single and Multiplayer online with real life friends.</t>
+  </si>
+  <si>
+    <t>Multiplayer - online - with real life friends + with strangers</t>
+  </si>
+  <si>
+    <t>Both Single and Online with friends</t>
+  </si>
+  <si>
+    <t>Everything</t>
+  </si>
+  <si>
+    <t>sometimes soloq, sometimes with friends</t>
+  </si>
+  <si>
+    <t>Both multi- and singleplayer with both friends and strangers</t>
+  </si>
+  <si>
+    <t>Multiplayer - With friends and strangers</t>
+  </si>
+  <si>
+    <t>multiplayer with people in and not in the room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With all the above </t>
+  </si>
+  <si>
+    <t>Multiplayer with people i know from gaming ( over 5 years) and real life friends</t>
+  </si>
+  <si>
+    <t>Real life friends/teammates</t>
+  </si>
+  <si>
+    <t>Multiplayer - online - with strangers and real life friends</t>
+  </si>
+  <si>
+    <t>single/multi offline</t>
+  </si>
+  <si>
+    <t>Multiplayer with Bots</t>
+  </si>
+  <si>
+    <t>Multiplayer with my boyfriend and friends!</t>
+  </si>
+  <si>
+    <t>Multiplayer - About equal time with real life friends and strangers</t>
+  </si>
+  <si>
+    <t>strangers/rl friends/people met online</t>
+  </si>
+  <si>
+    <t>friends and strangers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all of the above </t>
+  </si>
+  <si>
+    <t>Multiplayer online with both online friends and real life friends</t>
+  </si>
+  <si>
+    <t>It's an online game</t>
+  </si>
+  <si>
+    <t>Multiplayer - online - with friends ive met</t>
+  </si>
+  <si>
+    <t>online - duo - ranked with friend.</t>
+  </si>
+  <si>
+    <t>multiplayer real life and online friends and random people</t>
+  </si>
+  <si>
+    <t>Multiplayer with and without friends</t>
+  </si>
+  <si>
+    <t>both with friends and with strangers</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>usually combination of all</t>
+  </si>
+  <si>
+    <t>with girlfriend</t>
+  </si>
+  <si>
+    <t>Porn</t>
+  </si>
+  <si>
+    <t>With my ranked team, a mix of real life friends and online acquaintances.</t>
+  </si>
+  <si>
+    <t>Mutiplayer with both real life friends and online</t>
+  </si>
+  <si>
+    <t xml:space="preserve">an equal mix </t>
+  </si>
+  <si>
+    <t>With real life friends, and online friends.</t>
+  </si>
+  <si>
+    <t>Multiplayers online with both strangers and friends</t>
+  </si>
+  <si>
+    <t>last 3 options</t>
+  </si>
+  <si>
+    <t>I do te 5 choices above</t>
+  </si>
+  <si>
+    <t>DuoQ/Ranked Team / Strangers</t>
+  </si>
+  <si>
+    <t>As much Online as Offline</t>
+  </si>
+  <si>
+    <t>mixture of acquintances and randomers</t>
+  </si>
+  <si>
+    <t>real life friends and strangers</t>
+  </si>
+  <si>
+    <t>Combination of Online with friends, and online with strangers</t>
+  </si>
+  <si>
+    <t>Multiplayer - online with both online acquaintances and real life friends, equally</t>
+  </si>
+  <si>
+    <t>Multiplayer - online - with real life friends and with strangers</t>
+  </si>
+  <si>
+    <t>singleplayer, multiplayer with acquaintances, and multiplayer with real life friends</t>
+  </si>
+  <si>
+    <t>Multiplayer - both online and offline with a mixture of friends, randoms, and bots</t>
+  </si>
+  <si>
+    <t>multiplayer online, equally with friends and strangers</t>
+  </si>
+  <si>
+    <t>Online with friends and strangers</t>
+  </si>
+  <si>
+    <t>Multiplayer - online - mix</t>
+  </si>
+  <si>
+    <t>a mix of the last 3 ones sometimes with rl friends sometimes with acquaintances and strangers too</t>
+  </si>
+  <si>
+    <t>Multiplayer - online - with real life friends or strangers</t>
+  </si>
+  <si>
+    <t>Online with strangers, acquaintances and friends</t>
+  </si>
+  <si>
+    <t>Mixture of real life friends and online acquiantances/team mates</t>
+  </si>
+  <si>
+    <t>with strangers and with my friends</t>
+  </si>
+  <si>
+    <t>Yolo queue</t>
+  </si>
+  <si>
+    <t>Multiplayer, online, with both acquaintances and real life friends</t>
+  </si>
+  <si>
+    <t>mix of the last 3</t>
+  </si>
+  <si>
+    <t>Multiplayer - online - friends I've known online for years</t>
+  </si>
+  <si>
+    <t>Online, both real life and online friends</t>
+  </si>
+  <si>
+    <t>Multiplayer-online -with real friend and online acquaintances</t>
+  </si>
+  <si>
+    <t>Multiplayer - online - mixture of all three online options above</t>
+  </si>
+  <si>
+    <t>mix of online friends and IRL friends</t>
+  </si>
+  <si>
+    <t>both real life and online friends</t>
+  </si>
+  <si>
+    <t>Multiplayer - online- With real life friends and online friends</t>
+  </si>
+  <si>
+    <t>Online, with real friends. Also strangers are part of the game</t>
+  </si>
+  <si>
+    <t>Multiplayer, with online and real life friends, and some online friends have become real life friends.</t>
+  </si>
+  <si>
+    <t>I usually play online with my real life friends and the internet ones alike.</t>
+  </si>
+  <si>
+    <t>Single Type</t>
+  </si>
+  <si>
+    <t>Multiplayer Type</t>
+  </si>
+  <si>
+    <t>Mixed</t>
+  </si>
+  <si>
+    <t>both</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -494,13 +1383,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -515,8 +1424,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -853,700 +1765,2225 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C38E17-2A77-423A-8011-EB5901F0165D}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D3"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="33.46484375" customWidth="1"/>
+    <col min="1" max="2" width="22.19921875" customWidth="1"/>
+    <col min="3" max="3" width="41.33203125" customWidth="1"/>
     <col min="4" max="4" width="31.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
         <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
         <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
         <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
         <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
         <v>36</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
         <v>39</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
         <v>42</v>
-      </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
         <v>45</v>
-      </c>
-      <c r="B15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
         <v>48</v>
-      </c>
-      <c r="B16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
         <v>51</v>
-      </c>
-      <c r="B17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" t="s">
         <v>54</v>
-      </c>
-      <c r="B18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" t="s">
         <v>57</v>
-      </c>
-      <c r="B19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
         <v>60</v>
-      </c>
-      <c r="B20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" t="s">
         <v>63</v>
-      </c>
-      <c r="B21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="D22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" t="s">
         <v>68</v>
-      </c>
-      <c r="B23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" t="s">
         <v>71</v>
-      </c>
-      <c r="B24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" t="s">
         <v>74</v>
-      </c>
-      <c r="B25" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" t="s">
         <v>77</v>
-      </c>
-      <c r="B26" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" t="s">
         <v>80</v>
-      </c>
-      <c r="B27" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" t="s">
         <v>83</v>
-      </c>
-      <c r="B28" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" t="s">
         <v>86</v>
-      </c>
-      <c r="B29" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" t="s">
         <v>89</v>
-      </c>
-      <c r="B30" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" t="s">
         <v>92</v>
-      </c>
-      <c r="B31" t="s">
-        <v>93</v>
-      </c>
-      <c r="C31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" t="s">
         <v>95</v>
-      </c>
-      <c r="B32" t="s">
-        <v>96</v>
-      </c>
-      <c r="C32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" t="s">
         <v>98</v>
-      </c>
-      <c r="B33" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" t="s">
         <v>101</v>
-      </c>
-      <c r="B34" t="s">
-        <v>102</v>
-      </c>
-      <c r="C34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" t="s">
         <v>104</v>
-      </c>
-      <c r="B35" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" t="s">
         <v>107</v>
-      </c>
-      <c r="B36" t="s">
-        <v>108</v>
-      </c>
-      <c r="C36" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" t="s">
         <v>110</v>
-      </c>
-      <c r="B37" t="s">
-        <v>111</v>
-      </c>
-      <c r="C37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" t="s">
         <v>113</v>
-      </c>
-      <c r="B38" t="s">
-        <v>114</v>
-      </c>
-      <c r="C38" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" t="s">
         <v>116</v>
-      </c>
-      <c r="B39" t="s">
-        <v>117</v>
-      </c>
-      <c r="C39" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40" t="s">
         <v>119</v>
-      </c>
-      <c r="B40" t="s">
-        <v>120</v>
-      </c>
-      <c r="C40" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" t="s">
         <v>122</v>
-      </c>
-      <c r="B41" t="s">
-        <v>123</v>
-      </c>
-      <c r="C41" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" t="s">
         <v>125</v>
-      </c>
-      <c r="B42" t="s">
-        <v>126</v>
-      </c>
-      <c r="C42" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" t="s">
         <v>128</v>
-      </c>
-      <c r="B43" t="s">
-        <v>129</v>
-      </c>
-      <c r="C43" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44" t="s">
         <v>131</v>
-      </c>
-      <c r="B44" t="s">
-        <v>132</v>
-      </c>
-      <c r="C44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" t="s">
+        <v>133</v>
+      </c>
+      <c r="D45" t="s">
         <v>134</v>
-      </c>
-      <c r="B45" t="s">
-        <v>135</v>
-      </c>
-      <c r="C45" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" t="s">
+        <v>136</v>
+      </c>
+      <c r="D46" t="s">
         <v>137</v>
-      </c>
-      <c r="B46" t="s">
-        <v>138</v>
-      </c>
-      <c r="C46" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" t="s">
+        <v>139</v>
+      </c>
+      <c r="D47" t="s">
         <v>140</v>
-      </c>
-      <c r="B47" t="s">
-        <v>141</v>
-      </c>
-      <c r="C47" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
+        <v>141</v>
+      </c>
+      <c r="C48" t="s">
+        <v>142</v>
+      </c>
+      <c r="D48" t="s">
         <v>143</v>
-      </c>
-      <c r="B48" t="s">
-        <v>144</v>
-      </c>
-      <c r="C48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>146</v>
-      </c>
-      <c r="B49" t="s">
+        <v>144</v>
+      </c>
+      <c r="C49" t="s">
+        <v>145</v>
+      </c>
+      <c r="D49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D64330-5C29-4FA4-9A69-5946512D90EF}">
+  <dimension ref="A1:H294"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="63.86328125" customWidth="1"/>
+    <col min="5" max="5" width="15.9296875" customWidth="1"/>
+    <col min="6" max="6" width="20.796875" customWidth="1"/>
+    <col min="7" max="7" width="5.46484375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C49" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49" t="s">
-        <v>4</v>
+      <c r="D2" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F3" t="s">
+        <v>161</v>
+      </c>
+      <c r="H3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="H4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="H5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>153</v>
+      </c>
+      <c r="H8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" t="s">
+        <v>278</v>
+      </c>
+      <c r="H10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" t="s">
+        <v>295</v>
+      </c>
+      <c r="H12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" t="s">
+        <v>426</v>
+      </c>
+      <c r="H13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>159</v>
+      </c>
+      <c r="H14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>160</v>
+      </c>
+      <c r="H15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>162</v>
+      </c>
+      <c r="H17" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>164</v>
+      </c>
+      <c r="H19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>165</v>
+      </c>
+      <c r="H20" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>166</v>
+      </c>
+      <c r="H21" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>168</v>
+      </c>
+      <c r="H23" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>169</v>
+      </c>
+      <c r="H24" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>170</v>
+      </c>
+      <c r="H25" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>172</v>
+      </c>
+      <c r="H27" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>173</v>
+      </c>
+      <c r="H28" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>175</v>
+      </c>
+      <c r="H30" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>176</v>
+      </c>
+      <c r="H31" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A33" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H33" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>179</v>
+      </c>
+      <c r="H34" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>180</v>
+      </c>
+      <c r="H35" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>181</v>
+      </c>
+      <c r="H36" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>183</v>
+      </c>
+      <c r="H38" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>185</v>
+      </c>
+      <c r="H40" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>186</v>
+      </c>
+      <c r="H41" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>187</v>
+      </c>
+      <c r="H42" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>189</v>
+      </c>
+      <c r="H44" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>191</v>
+      </c>
+      <c r="H46" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>192</v>
+      </c>
+      <c r="H47" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>193</v>
+      </c>
+      <c r="H48" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>194</v>
+      </c>
+      <c r="H49" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>196</v>
+      </c>
+      <c r="H51" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>199</v>
+      </c>
+      <c r="H54" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>200</v>
+      </c>
+      <c r="H55" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>201</v>
+      </c>
+      <c r="H56" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>204</v>
+      </c>
+      <c r="H59" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>206</v>
+      </c>
+      <c r="H61" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>208</v>
+      </c>
+      <c r="H63" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A113" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A114" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A115" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A116" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A117" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A118" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A119" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A120" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A121" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A122" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A123" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A124" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A125" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A126" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A127" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A128" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A129" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A130" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A131" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A132" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A133" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A134" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A135" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A136" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A137" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A138" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A139" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A140" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A141" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A142" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A143" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A144" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A145" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A146" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A147" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A148" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A149" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A150" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A151" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A152" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A153" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A154" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A155" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A156" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A157" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A158" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A159" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A160" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A161" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A162" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A163" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A164" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A165" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A166" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A167" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A168" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A169" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A170" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A171" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A172" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A173" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A174" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A175" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A176" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A177" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A178" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A179" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A180" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A181" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A182" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A183" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A184" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A185" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A186" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A187" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A188" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A189" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A190" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A191" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A192" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A193" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A194" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A195" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A196" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A197" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A198" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A199" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A200" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A201" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A202" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A203" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A204" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A205" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A206" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A207" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A208" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A209" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A210" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A211" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A212" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A213" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A214" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A215" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A216" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A217" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A218" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A219" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A220" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A221" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A222" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A223" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A224" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A225" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A226" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A227" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A228" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A229" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A230" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A231" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A232" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A233" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A234" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A235" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A236" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A237" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A238" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A239" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A240" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A241" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A242" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A243" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A244" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A245" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A246" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A247" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A248" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A249" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A250" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A251" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A252" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A253" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A254" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A255" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A256" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A257" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A258" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A259" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A260" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A261" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A262" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A263" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A264" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A265" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A266" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A267" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A268" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A269" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A270" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A271" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A272" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A273" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A274" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A275" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A276" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A277" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A278" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A279" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A280" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A281" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A282" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A283" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A284" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A285" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A286" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A287" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A288" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A289" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A290" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A291" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A292" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A293" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A294" t="s">
+        <v>438</v>
       </c>
     </row>
   </sheetData>
